--- a/benchmarks/pldi-16/pldi16-experiments.xlsx
+++ b/benchmarks/pldi-16/pldi16-experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="86">
   <si>
     <t>ArrayInt-false.java</t>
   </si>
@@ -268,7 +268,16 @@
     <t>Descartes-Product</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>Self-Composition</t>
+  </si>
+  <si>
+    <t>Prop 1</t>
+  </si>
+  <si>
+    <t>Prop 2</t>
+  </si>
+  <si>
+    <t>Prop 3</t>
   </si>
 </sst>
 </file>
@@ -317,8 +326,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,7 +610,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -732,6 +747,9 @@
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -868,6 +886,9 @@
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3691,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G31"/>
+  <dimension ref="C1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3702,24 +3723,53 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="1" spans="3:14">
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14">
       <c r="C2" t="s">
         <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="3:7">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -3727,7 +3777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:14">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -3735,7 +3785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:14">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -3743,7 +3793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:14">
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -3751,7 +3801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:14">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -3759,7 +3809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:14">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -3767,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:14">
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -3775,7 +3825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:14">
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -3783,7 +3833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:14">
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -3791,7 +3841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:14">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -3799,7 +3849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:14">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -3807,7 +3857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:14">
       <c r="C14" t="s">
         <v>60</v>
       </c>
@@ -3815,7 +3865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:14">
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -3823,7 +3873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:14">
       <c r="C16" t="s">
         <v>62</v>
       </c>
